--- a/biology/Médecine/Alcool_Assistance/Alcool_Assistance.xlsx
+++ b/biology/Médecine/Alcool_Assistance/Alcool_Assistance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alcool Assistance  est une association reconnue d'utilité publique, indépendante de toute attache politique ou confessionnelle visant à aider et accompagner les personnes en difficultés avec l'alcool et leur entourage. Alcool Assistance fait partie des associations néphalistes (liste voir note[1]) dont l'objectif est d'accompagner le malade alcoolique qui souhaite guérir. Avec certaines spécificités décrites ci-après, Alcool Assistance propose des groupes de parole qui se réunissent à intervalles réguliers. On retrouve ces groupes dans de nombreux départements français. Par analogie de la problématique, Alcool Assistance étend progressivement son action à la dépendance à tous les psychotropes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alcool Assistance  est une association reconnue d'utilité publique, indépendante de toute attache politique ou confessionnelle visant à aider et accompagner les personnes en difficultés avec l'alcool et leur entourage. Alcool Assistance fait partie des associations néphalistes (liste voir note) dont l'objectif est d'accompagner le malade alcoolique qui souhaite guérir. Avec certaines spécificités décrites ci-après, Alcool Assistance propose des groupes de parole qui se réunissent à intervalles réguliers. On retrouve ces groupes dans de nombreux départements français. Par analogie de la problématique, Alcool Assistance étend progressivement son action à la dépendance à tous les psychotropes.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Définition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour Alcool Assistance, la maladie alcoolique est physique, psychologique, sociale et spirituelle. De ce fait elle requiert la mobilisation de toutes les compétences et une approche pluridisciplinaire. L'association considère que son action s'intègre aux différents soins dont la personne en difficultés avec l'alcool a besoin.
 </t>
@@ -542,7 +556,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1910, quatre jeunes prêtres étudiant au séminaire français de Rome s'engagent dans une action de promotion de l'abstinence. En 1913, l'association prend le nom de La Croix d'Or. Parution du premier bulletin du même nom.
 En 1954, l'association acquiert le statut d'association loi de 1901 et nomme son premier bureau national. Création de délégations départementales dans toute la France.
@@ -581,7 +597,9 @@
           <t>Spécificités et champ d'action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Alcool Assistance n'a pas de référence théiste et se distingue des autres acteurs qui proposent une assistance aux personnes en difficultés avec l'alcool notamment par l'absence d'anonymat (quoique la confidentialité soit assurée) et une étroite collaboration avec les centres de soins. Pour Alcool Assistance, cette collaboration se justifie parce que le parcours de guérison pour le malade nécessite de mobiliser non seulement toutes les bonnes volontés, mais aussi toutes les compétences.
 Toute personne désireuse de faire partie de l'association en tant que membre actif doit prendre librement un engagement d'abstinence totale de toute boisson alcoolisée. Cet engagement ne peut être souscrit qu'au terme d'une période d'abstinence constatée de trois mois consécutifs. L'abstinence d'un aspirant ne fait l'objet d'aucun contrôle. La participation régulière aux réunions et la parole donnée suffisent. Le membre devient actif et reçoit sa carte d'adhérent à la signature de son engagement et contre le versement d'une cotisation annuelle.
@@ -615,9 +633,11 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'association s'articule autour de (voir note[2]):
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'association s'articule autour de (voir note):
 1 Fédération Nationale
 fixe les stratégies, la politique de l'ensemble des délégations départementales. Elle assure la gestion et la coordination des moyens mis en œuvre par les adhérents dont l'action est bénévole.
 7 Associations Régionales
@@ -627,7 +647,7 @@
 461 Sections Locales (regroupées en Zones)
 qui rassemblent les Antennes (hébergeant les groupes de parole).
 rôles section, zones, antennes à préciser
-En 2009, le mouvement comptait environ 10 000 adhérents en France (voir note[2]).
+En 2009, le mouvement comptait environ 10 000 adhérents en France (voir note).
 </t>
         </is>
       </c>
@@ -656,10 +676,12 @@
           <t>Ressources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>L'association fait largement appel au bénévolat sans lequel il elle ne pourrait exister (voir note[3]). .
-Les ressources du mouvement proviennent (voir note[2]):
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>L'association fait largement appel au bénévolat sans lequel il elle ne pourrait exister (voir note). .
+Les ressources du mouvement proviennent (voir note):
 à 85 % des partenaires institutionnels
 tels que la Caisse Nationale d'Assurance-Maladie, le Ministère de la Santé, la Mission Interministérielle de Lutte contre les Drogues et les Toxicomanies et la Mutualité Sociale Agricole.
 à 15 % par autofinancement
